--- a/(已处理)08.xlsx
+++ b/(已处理)08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L-PWDocument\Downloads\1-python\PythonWorkspace\mergeViewXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C134AE46-E90A-4AB2-AB88-9161A2588AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA37AC43-C24C-44C7-9BD8-4C5E9ABBCA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/(已处理)08.xlsx
+++ b/(已处理)08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L-PWDocument\Downloads\1-python\PythonWorkspace\mergeViewXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA37AC43-C24C-44C7-9BD8-4C5E9ABBCA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{090018BD-E99D-402D-AE0D-3B3D348837F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -855,7 +855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BH37" workbookViewId="0">
+      <selection activeCell="BP44" sqref="BP44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/(已处理)08.xlsx
+++ b/(已处理)08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L-PWDocument\Downloads\1-python\PythonWorkspace\mergeViewXlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\PythonWorkSpace\mergeViewXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{090018BD-E99D-402D-AE0D-3B3D348837F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7BE663C-031B-4AD9-94E5-3FB7B47B3ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -859,12 +859,12 @@
       <selection activeCell="BP44" sqref="BP44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="67" width="23.5" customWidth="1"/>
+    <col min="1" max="67" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>153</v>
       </c>

--- a/(已处理)08.xlsx
+++ b/(已处理)08.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\PythonWorkSpace\mergeViewXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7BE663C-031B-4AD9-94E5-3FB7B47B3ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60B64F87-8541-44DD-B11E-509BB0F00288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3972" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="170">
   <si>
     <t>物料类型</t>
   </si>
@@ -491,6 +492,45 @@
   </si>
   <si>
     <t>V132，1555</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>300023</t>
+  </si>
+  <si>
+    <t>10-归档</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>ZORM</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>0123456789363</t>
+  </si>
+  <si>
+    <t>不锈钢直通转接头</t>
+  </si>
+  <si>
+    <t>，5*20</t>
+  </si>
+  <si>
+    <t>物料业务数据维护申请-2023-06-27 15:08:16</t>
+  </si>
+  <si>
+    <t>序号</t>
   </si>
 </sst>
 </file>
@@ -853,232 +893,1074 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO4"/>
+  <dimension ref="A1:BP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH37" workbookViewId="0">
-      <selection activeCell="BP44" sqref="BP44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BP23" sqref="BP23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="67" width="23.44140625" customWidth="1"/>
+    <col min="2" max="68" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S2" t="s">
+        <v>110</v>
+      </c>
+      <c r="T2" t="s">
+        <v>111</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" t="s">
+        <v>112</v>
+      </c>
+      <c r="T3" t="s">
+        <v>111</v>
+      </c>
+      <c r="U3" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>113</v>
+      </c>
+      <c r="T4" t="s">
+        <v>114</v>
+      </c>
+      <c r="U4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" t="s">
+        <v>104</v>
+      </c>
+      <c r="X4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s">
+        <v>112</v>
+      </c>
+      <c r="T5" t="s">
+        <v>163</v>
+      </c>
+      <c r="U5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" t="s">
+        <v>161</v>
+      </c>
+      <c r="X5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>159</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9242C84F-CC36-470C-A119-10B2ACDA0F36}">
+  <dimension ref="A2:BQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
@@ -1096,7 +1978,7 @@
         <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="K2" t="s">
         <v>67</v>
@@ -1117,13 +1999,13 @@
         <v>86</v>
       </c>
       <c r="Q2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S2" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="T2" t="s">
         <v>67</v>
@@ -1132,31 +2014,31 @@
         <v>67</v>
       </c>
       <c r="V2" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="W2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="X2" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="Y2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="Z2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="AA2" t="s">
         <v>91</v>
       </c>
       <c r="AB2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s">
         <v>115</v>
       </c>
       <c r="AD2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AE2" t="s">
         <v>67</v>
@@ -1165,7 +2047,7 @@
         <v>124</v>
       </c>
       <c r="AG2" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="AH2" t="s">
         <v>126</v>
@@ -1183,16 +2065,16 @@
         <v>67</v>
       </c>
       <c r="AM2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="AN2" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="AO2" t="s">
         <v>40</v>
       </c>
       <c r="AP2" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="s">
         <v>67</v>
@@ -1201,34 +2083,34 @@
         <v>67</v>
       </c>
       <c r="AS2" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AT2" t="s">
         <v>130</v>
       </c>
       <c r="AU2" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="AV2" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="s">
         <v>120</v>
       </c>
       <c r="AX2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AY2" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="AZ2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="BA2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="BC2" t="s">
         <v>67</v>
@@ -1237,7 +2119,7 @@
         <v>67</v>
       </c>
       <c r="BE2" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="BF2" t="s">
         <v>73</v>
@@ -1252,16 +2134,16 @@
         <v>75</v>
       </c>
       <c r="BJ2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BK2" t="s">
         <v>76</v>
       </c>
       <c r="BL2" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="BM2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BN2" t="s">
         <v>79</v>
@@ -1269,411 +2151,11 @@
       <c r="BO2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" t="s">
-        <v>112</v>
-      </c>
-      <c r="S3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" t="s">
-        <v>67</v>
-      </c>
-      <c r="V3" t="s">
-        <v>100</v>
-      </c>
-      <c r="W3" t="s">
-        <v>97</v>
-      </c>
-      <c r="X3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>76</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" t="s">
-        <v>113</v>
-      </c>
-      <c r="S4" t="s">
-        <v>114</v>
-      </c>
-      <c r="T4" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" t="s">
-        <v>67</v>
-      </c>
-      <c r="V4" t="s">
-        <v>104</v>
-      </c>
-      <c r="W4" t="s">
-        <v>97</v>
-      </c>
-      <c r="X4" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>67</v>
+      <c r="BP2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
